--- a/USASwimming/Times For Collin Thompson.xlsx
+++ b/USASwimming/Times For Collin Thompson.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="139">
   <si>
     <t>Event</t>
   </si>
@@ -84,6 +84,12 @@
     <t>3/3/2019</t>
   </si>
   <si>
+    <t>2019 CT RYWC Candlewood Cup</t>
+  </si>
+  <si>
+    <t>11/9/2019</t>
+  </si>
+  <si>
     <t>3/15/2019</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>3/2/2019</t>
   </si>
   <si>
+    <t>11/10/2019</t>
+  </si>
+  <si>
     <t>2019 CT GRIT January Qualifier</t>
   </si>
   <si>
@@ -243,6 +252,15 @@
     <t>3/1/2019</t>
   </si>
   <si>
+    <t>11/8/2019</t>
+  </si>
+  <si>
+    <t>2019 CT Cheshire Y Sea Dog IMX</t>
+  </si>
+  <si>
+    <t>10/20/2019</t>
+  </si>
+  <si>
     <t>2017 CT Centennial Center Distance</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>3/17/2019</t>
   </si>
   <si>
+    <t>10/19/2019</t>
+  </si>
+  <si>
     <t>2018 CT CDOIG 13th Annual IMX Cup</t>
   </si>
   <si>
@@ -316,6 +337,9 @@
   </si>
   <si>
     <t>100 FL</t>
+  </si>
+  <si>
+    <t>200 FL</t>
   </si>
   <si>
     <t>100 IM</t>
@@ -775,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -898,22 +922,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>33.500293749999997</v>
+        <v>33.500289004629629</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.500293750003</v>
+        <v>36557.500289004631</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>614</v>
+        <v>566</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -922,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -930,22 +954,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>33.500293981481484</v>
+        <v>33.500293749999997</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.50029398148</v>
+        <v>36557.500293750003</v>
       </c>
       <c r="D5">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -962,31 +986,31 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>33.500301851851852</v>
+        <v>33.500293981481484</v>
       </c>
       <c r="C6" s="2">
-        <v>36557.500301851855</v>
+        <v>36557.50029398148</v>
       </c>
       <c r="D6">
         <v>13</v>
       </c>
       <c r="E6">
-        <v>556</v>
+        <v>612</v>
       </c>
       <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -994,19 +1018,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>33.500310648148151</v>
+        <v>33.500301851851852</v>
       </c>
       <c r="C7" s="2">
-        <v>36557.500310648145</v>
+        <v>36557.500301851855</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>616</v>
+        <v>556</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -1026,16 +1050,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>33.500314351851848</v>
+        <v>33.500310648148151</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.500314351855</v>
+        <v>36557.500310648145</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1058,22 +1082,22 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500317129629629</v>
+        <v>33.500314351851848</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.500317129627</v>
+        <v>36557.500314351855</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1082,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1090,22 +1114,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>33.500323958333333</v>
+        <v>33.500317129629629</v>
       </c>
       <c r="C10" s="2">
-        <v>36557.500323958331</v>
+        <v>36557.500317129627</v>
       </c>
       <c r="D10">
         <v>12</v>
       </c>
       <c r="E10">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1114,7 +1138,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1122,19 +1146,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>33.500326620370373</v>
+        <v>33.500323958333333</v>
       </c>
       <c r="C11" s="2">
-        <v>36557.500326620371</v>
+        <v>36557.500323958331</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1154,19 +1178,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>33.500327314814818</v>
+        <v>33.500326620370373</v>
       </c>
       <c r="C12" s="2">
-        <v>36557.500327314818</v>
+        <v>36557.500326620371</v>
       </c>
       <c r="D12">
         <v>12</v>
       </c>
       <c r="E12">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1186,22 +1210,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>33.500329629629633</v>
+        <v>33.500327314814818</v>
       </c>
       <c r="C13" s="2">
-        <v>36557.500329629627</v>
+        <v>36557.500327314818</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1210,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1218,22 +1242,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>33.500340740740739</v>
+        <v>33.500329629629633</v>
       </c>
       <c r="C14" s="2">
-        <v>36557.500340740742</v>
+        <v>36557.500329629627</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1242,7 +1266,7 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1250,31 +1274,31 @@
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>33.500352083333333</v>
+        <v>33.500340740740739</v>
       </c>
       <c r="C15" s="2">
-        <v>36557.500352083334</v>
+        <v>36557.500340740742</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
         <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1282,19 +1306,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>33.500372685185184</v>
+        <v>33.500352083333333</v>
       </c>
       <c r="C16" s="2">
-        <v>36557.500372685186</v>
+        <v>36557.500352083334</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -1314,19 +1338,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>33.500382175925928</v>
+        <v>33.500372685185184</v>
       </c>
       <c r="C17" s="2">
-        <v>36557.500382175924</v>
+        <v>36557.500372685186</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
       <c r="E17">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -1346,19 +1370,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="2">
-        <v>33.500391203703707</v>
+        <v>33.500382175925928</v>
       </c>
       <c r="C18" s="2">
-        <v>36557.500391203706</v>
+        <v>36557.500382175924</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -1378,19 +1402,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="2">
-        <v>33.500407870370367</v>
+        <v>33.500391203703707</v>
       </c>
       <c r="C19" s="2">
-        <v>36557.500407870371</v>
+        <v>36557.500391203706</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
       <c r="E19">
-        <v>444</v>
+        <v>520</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
         <v>47</v>
@@ -1410,19 +1434,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="2">
-        <v>33.500412847222222</v>
+        <v>33.500407870370367</v>
       </c>
       <c r="C20" s="2">
-        <v>36557.500412847221</v>
+        <v>36557.500407870371</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>49</v>
@@ -1442,31 +1466,31 @@
         <v>10</v>
       </c>
       <c r="B21" s="2">
-        <v>33.50045162037037</v>
+        <v>33.500412847222222</v>
       </c>
       <c r="C21" s="2">
-        <v>36557.50045162037</v>
+        <v>36557.500412847221</v>
       </c>
       <c r="D21">
         <v>9</v>
       </c>
       <c r="E21">
-        <v>257</v>
+        <v>421</v>
       </c>
       <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
         <v>51</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
         <v>52</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1474,19 +1498,19 @@
         <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>33.500464814814812</v>
+        <v>33.50045162037037</v>
       </c>
       <c r="C22" s="2">
-        <v>36557.500464814817</v>
+        <v>36557.50045162037</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>54</v>
@@ -1506,19 +1530,19 @@
         <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>33.500599421296293</v>
+        <v>33.500464814814812</v>
       </c>
       <c r="C23" s="2">
-        <v>36557.500599421299</v>
+        <v>36557.500464814817</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
         <v>56</v>
@@ -1535,26 +1559,26 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>33.500599421296293</v>
+      </c>
+      <c r="C24" s="2">
+        <v>36557.500599421299</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="2">
-        <v>33.500618865740741</v>
-      </c>
-      <c r="C24" s="2">
-        <v>36557.500618865743</v>
-      </c>
-      <c r="D24">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>662</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
@@ -1562,30 +1586,30 @@
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2">
-        <v>33.50062037037037</v>
+        <v>33.500618865740741</v>
       </c>
       <c r="C25" s="2">
-        <v>36557.500620370367</v>
+        <v>36557.500618865743</v>
       </c>
       <c r="D25">
         <v>13</v>
       </c>
       <c r="E25">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1594,30 +1618,30 @@
         <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2">
-        <v>33.500634490740744</v>
+        <v>33.50062037037037</v>
       </c>
       <c r="C26" s="2">
-        <v>36557.500634490738</v>
+        <v>36557.500620370367</v>
       </c>
       <c r="D26">
         <v>13</v>
       </c>
       <c r="E26">
-        <v>603</v>
+        <v>656</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -1626,30 +1650,30 @@
         <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2">
-        <v>33.500646527777775</v>
+        <v>33.500632291666669</v>
       </c>
       <c r="C27" s="2">
-        <v>36557.500646527777</v>
+        <v>36557.500632291667</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -1658,62 +1682,62 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2">
-        <v>33.500664467592593</v>
+        <v>33.500634490740744</v>
       </c>
       <c r="C28" s="2">
-        <v>36557.500664467596</v>
+        <v>36557.500634490738</v>
       </c>
       <c r="D28">
         <v>13</v>
       </c>
       <c r="E28">
-        <v>494</v>
+        <v>603</v>
       </c>
       <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
         <v>23</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
         <v>24</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="3">
-        <v>33.500735648148151</v>
-      </c>
-      <c r="C29" s="3">
-        <v>33.500735648148151</v>
+        <v>60</v>
+      </c>
+      <c r="B29" s="2">
+        <v>33.500646527777775</v>
+      </c>
+      <c r="C29" s="2">
+        <v>36557.500646527777</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29">
-        <v>403</v>
+        <v>558</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1722,30 +1746,30 @@
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="3">
-        <v>33.500764467592596</v>
-      </c>
-      <c r="C30" s="3">
-        <v>33.500764467592596</v>
+        <v>60</v>
+      </c>
+      <c r="B30" s="2">
+        <v>33.500664467592593</v>
+      </c>
+      <c r="C30" s="2">
+        <v>36557.500664467596</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -1754,27 +1778,27 @@
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3">
-        <v>33.500778935185188</v>
+        <v>33.500735648148151</v>
       </c>
       <c r="C31" s="3">
-        <v>33.500778935185188</v>
+        <v>33.500735648148151</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
         <v>65</v>
@@ -1791,25 +1815,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3">
-        <v>33.500833796296298</v>
+        <v>33.500764467592596</v>
       </c>
       <c r="C32" s="3">
-        <v>33.500833796296298</v>
+        <v>33.500764467592596</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -1823,25 +1847,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3">
-        <v>33.500859722222224</v>
+        <v>33.500778935185188</v>
       </c>
       <c r="C33" s="3">
-        <v>33.500859722222224</v>
+        <v>33.500778935185188</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>354</v>
+        <v>422</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -1850,30 +1874,30 @@
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B34" s="3">
-        <v>33.501390624999999</v>
+        <v>33.500833796296298</v>
       </c>
       <c r="C34" s="3">
-        <v>33.501390624999999</v>
+        <v>33.500833796296298</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>562</v>
+        <v>413</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -1882,30 +1906,30 @@
         <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B35" s="3">
-        <v>33.501406365740742</v>
+        <v>33.500859722222224</v>
       </c>
       <c r="C35" s="3">
-        <v>33.501406365740742</v>
+        <v>33.500859722222224</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>534</v>
+        <v>354</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -1914,30 +1938,30 @@
         <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3">
-        <v>33.501457060185189</v>
+        <v>33.501390624999999</v>
       </c>
       <c r="C36" s="3">
-        <v>33.501457060185189</v>
+        <v>33.501390624999999</v>
       </c>
       <c r="D36">
         <v>13</v>
       </c>
       <c r="E36">
-        <v>446</v>
+        <v>562</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -1946,30 +1970,30 @@
         <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3">
-        <v>33.501584375</v>
+        <v>33.501397800925929</v>
       </c>
       <c r="C37" s="3">
-        <v>33.501584375</v>
+        <v>33.501397800925929</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -1978,31 +2002,31 @@
         <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3">
-        <v>33.501625462962963</v>
+        <v>33.501406365740742</v>
       </c>
       <c r="C38" s="3">
-        <v>33.501625462962963</v>
+        <v>33.501406365740742</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>335</v>
+        <v>534</v>
       </c>
       <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
         <v>23</v>
       </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
       <c r="H38" t="s">
         <v>14</v>
       </c>
@@ -2010,30 +2034,30 @@
         <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B39" s="3">
-        <v>33.501648263888889</v>
+        <v>33.501457060185189</v>
       </c>
       <c r="C39" s="3">
-        <v>33.501648263888889</v>
+        <v>33.501457060185189</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>306</v>
+        <v>446</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -2042,30 +2066,30 @@
         <v>15</v>
       </c>
       <c r="J39" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3">
-        <v>33.501683217592593</v>
+        <v>33.501584375</v>
       </c>
       <c r="C40" s="3">
-        <v>33.501683217592593</v>
+        <v>33.501584375</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -2074,30 +2098,30 @@
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B41" s="3">
-        <v>33.501701851851848</v>
+        <v>33.501625462962963</v>
       </c>
       <c r="C41" s="3">
-        <v>33.501701851851848</v>
+        <v>33.501625462962963</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -2106,30 +2130,30 @@
         <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B42" s="3">
-        <v>33.50172673611111</v>
+        <v>33.501648263888889</v>
       </c>
       <c r="C42" s="3">
-        <v>33.50172673611111</v>
+        <v>33.501648263888889</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -2138,30 +2162,30 @@
         <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3">
-        <v>33.50381597222222</v>
+        <v>33.501683217592593</v>
       </c>
       <c r="C43" s="3">
-        <v>33.50381597222222</v>
+        <v>33.501683217592593</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43">
-        <v>506</v>
+        <v>404</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -2170,30 +2194,30 @@
         <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" s="3">
-        <v>33.50387939814815</v>
+        <v>33.501701851851848</v>
       </c>
       <c r="C44" s="3">
-        <v>33.50387939814815</v>
+        <v>33.501701851851848</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E44">
-        <v>466</v>
+        <v>380</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -2202,30 +2226,30 @@
         <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B45" s="3">
-        <v>33.504531712962965</v>
+        <v>33.50172673611111</v>
       </c>
       <c r="C45" s="3">
-        <v>33.504531712962965</v>
+        <v>33.50172673611111</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
@@ -2234,62 +2258,62 @@
         <v>15</v>
       </c>
       <c r="J45" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B46" s="3">
-        <v>33.504582291666665</v>
+        <v>33.50381597222222</v>
       </c>
       <c r="C46" s="3">
-        <v>33.504582291666665</v>
+        <v>33.50381597222222</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>238</v>
+        <v>506</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
         <v>75</v>
-      </c>
-      <c r="H46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B47" s="3">
-        <v>33.504683217592593</v>
+        <v>33.503846643518521</v>
       </c>
       <c r="C47" s="3">
-        <v>33.504683217592593</v>
+        <v>33.503846643518521</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E47">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -2298,30 +2322,30 @@
         <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B48" s="3">
-        <v>33.504686689814818</v>
+        <v>33.503875694444446</v>
       </c>
       <c r="C48" s="3">
-        <v>33.504686689814818</v>
+        <v>33.503875694444446</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>196</v>
+        <v>387</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
@@ -2330,30 +2354,30 @@
         <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3">
-        <v>33.504784606481479</v>
+        <v>33.50387939814815</v>
       </c>
       <c r="C49" s="3">
-        <v>33.504784606481479</v>
+        <v>33.50387939814815</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>273</v>
+        <v>466</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -2362,30 +2386,30 @@
         <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="2">
-        <v>33.500366319444446</v>
-      </c>
-      <c r="C50" s="2">
-        <v>36557.500366319444</v>
+        <v>74</v>
+      </c>
+      <c r="B50" s="3">
+        <v>33.504531712962965</v>
+      </c>
+      <c r="C50" s="3">
+        <v>33.504531712962965</v>
       </c>
       <c r="D50">
         <v>12</v>
       </c>
       <c r="E50">
-        <v>539</v>
+        <v>260</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
@@ -2394,31 +2418,31 @@
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="3">
+        <v>33.504582291666665</v>
+      </c>
+      <c r="C51" s="3">
+        <v>33.504582291666665</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>238</v>
+      </c>
+      <c r="F51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="2">
-        <v>33.500369444444445</v>
-      </c>
-      <c r="C51" s="2">
-        <v>36557.500369444446</v>
-      </c>
-      <c r="D51">
-        <v>12</v>
-      </c>
-      <c r="E51">
-        <v>520</v>
-      </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
-      </c>
       <c r="H51" t="s">
         <v>14</v>
       </c>
@@ -2426,30 +2450,30 @@
         <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="2">
-        <v>33.500373495370368</v>
-      </c>
-      <c r="C52" s="2">
-        <v>36557.500373495372</v>
+        <v>74</v>
+      </c>
+      <c r="B52" s="3">
+        <v>33.504683217592593</v>
+      </c>
+      <c r="C52" s="3">
+        <v>33.504683217592593</v>
       </c>
       <c r="D52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52">
-        <v>497</v>
+        <v>317</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -2458,30 +2482,30 @@
         <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="2">
-        <v>33.500382407407407</v>
-      </c>
-      <c r="C53" s="2">
-        <v>36557.500382407408</v>
+        <v>74</v>
+      </c>
+      <c r="B53" s="3">
+        <v>33.504686689814818</v>
+      </c>
+      <c r="C53" s="3">
+        <v>33.504686689814818</v>
       </c>
       <c r="D53">
         <v>12</v>
       </c>
       <c r="E53">
-        <v>447</v>
+        <v>196</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -2490,30 +2514,30 @@
         <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="2">
-        <v>33.500413541666667</v>
-      </c>
-      <c r="C54" s="2">
-        <v>36557.500413541668</v>
+        <v>74</v>
+      </c>
+      <c r="B54" s="3">
+        <v>33.504784606481479</v>
+      </c>
+      <c r="C54" s="3">
+        <v>33.504784606481479</v>
       </c>
       <c r="D54">
         <v>11</v>
       </c>
       <c r="E54">
-        <v>429</v>
+        <v>273</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -2522,30 +2546,30 @@
         <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2">
-        <v>33.500418750000001</v>
+        <v>33.500366319444446</v>
       </c>
       <c r="C55" s="2">
-        <v>36557.500418750002</v>
+        <v>36557.500366319444</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>403</v>
+        <v>539</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
@@ -2554,30 +2578,30 @@
         <v>15</v>
       </c>
       <c r="J55" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="B56" s="2">
+        <v>33.500369444444445</v>
       </c>
       <c r="C56" s="2">
-        <v>36557.500457523151</v>
+        <v>36557.500369444446</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>365</v>
+        <v>520</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -2586,30 +2610,30 @@
         <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2">
-        <v>33.500459374999998</v>
+        <v>33.500373495370368</v>
       </c>
       <c r="C57" s="2">
-        <v>36557.500459374998</v>
+        <v>36557.500373495372</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E57">
-        <v>358</v>
+        <v>497</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
@@ -2618,30 +2642,30 @@
         <v>15</v>
       </c>
       <c r="J57" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2">
-        <v>33.500467708333332</v>
+        <v>33.500382407407407</v>
       </c>
       <c r="C58" s="2">
-        <v>36557.500467708334</v>
+        <v>36557.500382407408</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E58">
-        <v>324</v>
+        <v>447</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
@@ -2650,30 +2674,30 @@
         <v>15</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2">
-        <v>33.500475925925926</v>
+        <v>33.500413541666667</v>
       </c>
       <c r="C59" s="2">
-        <v>36557.500475925925</v>
+        <v>36557.500413541668</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -2682,30 +2706,30 @@
         <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2">
-        <v>33.500492592592593</v>
+        <v>33.500418750000001</v>
       </c>
       <c r="C60" s="2">
-        <v>36557.50049259259</v>
+        <v>36557.500418750002</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
@@ -2714,30 +2738,30 @@
         <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="2">
-        <v>33.500503935185186</v>
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>90</v>
       </c>
       <c r="C61" s="2">
-        <v>36557.500503935182</v>
+        <v>36557.500457523151</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G61" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
@@ -2746,30 +2770,30 @@
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2">
-        <v>33.500531481481481</v>
+        <v>33.500459374999998</v>
       </c>
       <c r="C62" s="2">
-        <v>36557.500531481484</v>
+        <v>36557.500459374998</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>212</v>
+        <v>358</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G62" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -2778,30 +2802,30 @@
         <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="3">
-        <v>33.500713310185184</v>
-      </c>
-      <c r="C63" s="3">
-        <v>33.500713310185184</v>
+      <c r="B63" s="2">
+        <v>33.500467708333332</v>
+      </c>
+      <c r="C63" s="2">
+        <v>36557.500467708334</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>589</v>
+        <v>324</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
@@ -2810,30 +2834,30 @@
         <v>15</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="3">
-        <v>33.500745254629628</v>
-      </c>
-      <c r="C64" s="3">
-        <v>33.500745254629628</v>
+      <c r="B64" s="2">
+        <v>33.500475925925926</v>
+      </c>
+      <c r="C64" s="2">
+        <v>36557.500475925925</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E64">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
@@ -2842,30 +2866,30 @@
         <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="3">
-        <v>33.500763657407404</v>
-      </c>
-      <c r="C65" s="3">
-        <v>33.500763657407404</v>
+      <c r="B65" s="2">
+        <v>33.500492592592593</v>
+      </c>
+      <c r="C65" s="2">
+        <v>36557.50049259259</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E65">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
@@ -2874,30 +2898,30 @@
         <v>15</v>
       </c>
       <c r="J65" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="3">
-        <v>33.500770833333334</v>
-      </c>
-      <c r="C66" s="3">
-        <v>33.500770833333334</v>
+      <c r="B66" s="2">
+        <v>33.500503935185186</v>
+      </c>
+      <c r="C66" s="2">
+        <v>36557.500503935182</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>563</v>
+        <v>308</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -2906,30 +2930,30 @@
         <v>15</v>
       </c>
       <c r="J66" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="3">
-        <v>33.500794444444445</v>
-      </c>
-      <c r="C67" s="3">
-        <v>33.500794444444445</v>
+      <c r="B67" s="2">
+        <v>33.500531481481481</v>
+      </c>
+      <c r="C67" s="2">
+        <v>36557.500531481484</v>
       </c>
       <c r="D67">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E67">
-        <v>499</v>
+        <v>212</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -2938,30 +2962,30 @@
         <v>15</v>
       </c>
       <c r="J67" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B68" s="3">
-        <v>33.500801388888888</v>
+        <v>33.500713310185184</v>
       </c>
       <c r="C68" s="3">
-        <v>33.500801388888888</v>
+        <v>33.500713310185184</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68">
-        <v>480</v>
+        <v>589</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -2970,30 +2994,30 @@
         <v>15</v>
       </c>
       <c r="J68" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B69" s="3">
-        <v>33.500806944444442</v>
+        <v>33.500724421296297</v>
       </c>
       <c r="C69" s="3">
-        <v>33.500806944444442</v>
+        <v>33.500724421296297</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -3002,31 +3026,31 @@
         <v>15</v>
       </c>
       <c r="J69" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B70" s="3">
-        <v>33.500827777777779</v>
+        <v>33.500745254629628</v>
       </c>
       <c r="C70" s="3">
-        <v>33.500827777777779</v>
+        <v>33.500745254629628</v>
       </c>
       <c r="D70">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s">
         <v>23</v>
       </c>
-      <c r="G70" t="s">
-        <v>32</v>
-      </c>
       <c r="H70" t="s">
         <v>14</v>
       </c>
@@ -3034,30 +3058,30 @@
         <v>15</v>
       </c>
       <c r="J70" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B71" s="3">
-        <v>33.500871527777775</v>
+        <v>33.500763657407404</v>
       </c>
       <c r="C71" s="3">
-        <v>33.500871527777775</v>
+        <v>33.500763657407404</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -3066,30 +3090,30 @@
         <v>15</v>
       </c>
       <c r="J71" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B72" s="3">
-        <v>33.500885995370368</v>
+        <v>33.500770833333334</v>
       </c>
       <c r="C72" s="3">
-        <v>33.500885995370368</v>
+        <v>33.500770833333334</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72">
-        <v>433</v>
+        <v>563</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
@@ -3098,30 +3122,30 @@
         <v>15</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B73" s="3">
-        <v>33.500942013888888</v>
+        <v>33.500794444444445</v>
       </c>
       <c r="C73" s="3">
-        <v>33.500942013888888</v>
+        <v>33.500794444444445</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -3130,30 +3154,30 @@
         <v>15</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B74" s="3">
-        <v>33.501006134259256</v>
+        <v>33.500801388888888</v>
       </c>
       <c r="C74" s="3">
-        <v>33.501006134259256</v>
+        <v>33.500801388888888</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -3162,30 +3186,30 @@
         <v>15</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B75" s="3">
-        <v>33.501084259259258</v>
+        <v>33.500806944444442</v>
       </c>
       <c r="C75" s="3">
-        <v>33.501084259259258</v>
+        <v>33.500806944444442</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E75">
-        <v>307</v>
+        <v>466</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -3194,30 +3218,30 @@
         <v>15</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B76" s="3">
-        <v>33.501522916666666</v>
+        <v>33.500827777777779</v>
       </c>
       <c r="C76" s="3">
-        <v>33.501522916666666</v>
+        <v>33.500827777777779</v>
       </c>
       <c r="D76">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76">
-        <v>624</v>
+        <v>412</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
@@ -3226,30 +3250,30 @@
         <v>15</v>
       </c>
       <c r="J76" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B77" s="3">
-        <v>33.50155196759259</v>
+        <v>33.500871527777775</v>
       </c>
       <c r="C77" s="3">
-        <v>33.50155196759259</v>
+        <v>33.500871527777775</v>
       </c>
       <c r="D77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E77">
-        <v>578</v>
+        <v>468</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
@@ -3258,30 +3282,30 @@
         <v>15</v>
       </c>
       <c r="J77" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B78" s="3">
-        <v>33.501631712962961</v>
+        <v>33.500885995370368</v>
       </c>
       <c r="C78" s="3">
-        <v>33.501631712962961</v>
+        <v>33.500885995370368</v>
       </c>
       <c r="D78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
@@ -3290,30 +3314,30 @@
         <v>15</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B79" s="3">
-        <v>33.501635300925926</v>
+        <v>33.500942013888888</v>
       </c>
       <c r="C79" s="3">
-        <v>33.501635300925926</v>
+        <v>33.500942013888888</v>
       </c>
       <c r="D79">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G79" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -3322,30 +3346,30 @@
         <v>15</v>
       </c>
       <c r="J79" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B80" s="3">
-        <v>33.501644097222226</v>
+        <v>33.501006134259256</v>
       </c>
       <c r="C80" s="3">
-        <v>33.501644097222226</v>
+        <v>33.501006134259256</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>581</v>
+        <v>318</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
@@ -3354,30 +3378,30 @@
         <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B81" s="3">
-        <v>33.501711921296298</v>
+        <v>33.501084259259258</v>
       </c>
       <c r="C81" s="3">
-        <v>33.501711921296298</v>
+        <v>33.501084259259258</v>
       </c>
       <c r="D81">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E81">
-        <v>493</v>
+        <v>307</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
@@ -3386,30 +3410,30 @@
         <v>15</v>
       </c>
       <c r="J81" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B82" s="3">
-        <v>33.501736226851854</v>
+        <v>33.501522916666666</v>
       </c>
       <c r="C82" s="3">
-        <v>33.501736226851854</v>
+        <v>33.501522916666666</v>
       </c>
       <c r="D82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82">
-        <v>462</v>
+        <v>624</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
@@ -3418,30 +3442,30 @@
         <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B83" s="3">
-        <v>33.501771875000003</v>
+        <v>33.501523148148145</v>
       </c>
       <c r="C83" s="3">
-        <v>33.501771875000003</v>
+        <v>33.501523148148145</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E83">
-        <v>419</v>
+        <v>513</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
@@ -3450,30 +3474,30 @@
         <v>15</v>
       </c>
       <c r="J83" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B84" s="3">
-        <v>33.501781018518521</v>
+        <v>33.50155196759259</v>
       </c>
       <c r="C84" s="3">
-        <v>33.501781018518521</v>
+        <v>33.50155196759259</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84">
-        <v>408</v>
+        <v>578</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
@@ -3482,30 +3506,30 @@
         <v>15</v>
       </c>
       <c r="J84" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85" s="3">
-        <v>33.501811574074075</v>
+        <v>33.501573148148147</v>
       </c>
       <c r="C85" s="3">
-        <v>33.501811574074075</v>
+        <v>33.501573148148147</v>
       </c>
       <c r="D85">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E85">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G85" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
         <v>14</v>
@@ -3514,30 +3538,30 @@
         <v>15</v>
       </c>
       <c r="J85" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86" s="3">
-        <v>33.501874652777779</v>
+        <v>33.501631712962961</v>
       </c>
       <c r="C86" s="3">
-        <v>33.501874652777779</v>
+        <v>33.501631712962961</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E86">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H86" t="s">
         <v>14</v>
@@ -3546,30 +3570,30 @@
         <v>15</v>
       </c>
       <c r="J86" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B87" s="3">
-        <v>33.501906828703703</v>
+        <v>33.501635300925926</v>
       </c>
       <c r="C87" s="3">
-        <v>33.501906828703703</v>
+        <v>33.501635300925926</v>
       </c>
       <c r="D87">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E87">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H87" t="s">
         <v>14</v>
@@ -3578,30 +3602,30 @@
         <v>15</v>
       </c>
       <c r="J87" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="2">
-        <v>33.500445023148146</v>
-      </c>
-      <c r="C88" s="2">
-        <v>36557.50044502315</v>
+      <c r="B88" s="3">
+        <v>33.501644097222226</v>
+      </c>
+      <c r="C88" s="3">
+        <v>33.501644097222226</v>
       </c>
       <c r="D88">
         <v>12</v>
       </c>
       <c r="E88">
-        <v>351</v>
+        <v>581</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
@@ -3610,30 +3634,30 @@
         <v>15</v>
       </c>
       <c r="J88" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="2">
-        <v>33.50048854166667</v>
-      </c>
-      <c r="C89" s="2">
-        <v>36557.500488541664</v>
+      <c r="B89" s="3">
+        <v>33.501711921296298</v>
+      </c>
+      <c r="C89" s="3">
+        <v>33.501711921296298</v>
       </c>
       <c r="D89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>325</v>
+        <v>493</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H89" t="s">
         <v>14</v>
@@ -3642,30 +3666,30 @@
         <v>15</v>
       </c>
       <c r="J89" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="2">
-        <v>33.500579513888887</v>
-      </c>
-      <c r="C90" s="2">
-        <v>36557.500579513886</v>
+      <c r="B90" s="3">
+        <v>33.501736226851854</v>
+      </c>
+      <c r="C90" s="3">
+        <v>33.501736226851854</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>139</v>
+        <v>462</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H90" t="s">
         <v>14</v>
@@ -3674,30 +3698,30 @@
         <v>15</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="2">
-        <v>33.500601620370368</v>
-      </c>
-      <c r="C91" s="2">
-        <v>36557.50060162037</v>
+      <c r="B91" s="3">
+        <v>33.501771875000003</v>
+      </c>
+      <c r="C91" s="3">
+        <v>33.501771875000003</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E91">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G91" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
@@ -3706,30 +3730,30 @@
         <v>15</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="2">
-        <v>33.500637962962962</v>
-      </c>
-      <c r="C92" s="2">
-        <v>36557.500637962963</v>
+      <c r="B92" s="3">
+        <v>33.501781018518521</v>
+      </c>
+      <c r="C92" s="3">
+        <v>33.501781018518521</v>
       </c>
       <c r="D92">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E92">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="F92" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
@@ -3738,30 +3762,30 @@
         <v>15</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="2">
-        <v>33.500689004629628</v>
-      </c>
-      <c r="C93" s="2">
-        <v>36557.500689004628</v>
+      <c r="B93" s="3">
+        <v>33.501811574074075</v>
+      </c>
+      <c r="C93" s="3">
+        <v>33.501811574074075</v>
       </c>
       <c r="D93">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E93">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="F93" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G93" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
@@ -3770,31 +3794,31 @@
         <v>15</v>
       </c>
       <c r="J93" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="3">
-        <v>33.502015509259259</v>
+        <v>33.501874652777779</v>
       </c>
       <c r="C94" s="3">
-        <v>33.502015509259259</v>
+        <v>33.501874652777779</v>
       </c>
       <c r="D94">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="F94" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" t="s">
         <v>38</v>
       </c>
-      <c r="G94" t="s">
-        <v>90</v>
-      </c>
       <c r="H94" t="s">
         <v>14</v>
       </c>
@@ -3802,30 +3826,30 @@
         <v>15</v>
       </c>
       <c r="J94" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="2">
-        <v>33.500381134259257</v>
-      </c>
-      <c r="C95" s="2">
-        <v>36557.500381134261</v>
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>33.501906828703703</v>
+      </c>
+      <c r="C95" s="3">
+        <v>33.501906828703703</v>
       </c>
       <c r="D95">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95">
-        <v>369</v>
+        <v>449</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s">
         <v>14</v>
@@ -3834,30 +3858,30 @@
         <v>15</v>
       </c>
       <c r="J95" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2">
-        <v>33.500527083333331</v>
+        <v>33.500445023148146</v>
       </c>
       <c r="C96" s="2">
-        <v>36557.500527083335</v>
+        <v>36557.50044502315</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E96">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H96" t="s">
         <v>14</v>
@@ -3866,30 +3890,30 @@
         <v>15</v>
       </c>
       <c r="J96" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2">
-        <v>33.500542708333334</v>
+        <v>33.50048854166667</v>
       </c>
       <c r="C97" s="2">
-        <v>36557.500542708331</v>
+        <v>36557.500488541664</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E97">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="F97" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H97" t="s">
         <v>14</v>
@@ -3898,30 +3922,30 @@
         <v>15</v>
       </c>
       <c r="J97" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2">
-        <v>33.500561111111111</v>
+        <v>33.500579513888887</v>
       </c>
       <c r="C98" s="2">
-        <v>36557.500561111112</v>
+        <v>36557.500579513886</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="F98" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s">
         <v>14</v>
@@ -3930,62 +3954,62 @@
         <v>15</v>
       </c>
       <c r="J98" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="3">
-        <v>33.500696990740742</v>
-      </c>
-      <c r="C99" s="3">
-        <v>33.500696990740742</v>
+        <v>101</v>
+      </c>
+      <c r="B99" s="2">
+        <v>33.500601620370368</v>
+      </c>
+      <c r="C99" s="2">
+        <v>36557.50060162037</v>
       </c>
       <c r="D99">
         <v>9</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="F99" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" t="s">
         <v>51</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" t="s">
         <v>52</v>
-      </c>
-      <c r="H99" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" t="s">
-        <v>15</v>
-      </c>
-      <c r="J99" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="3">
-        <v>33.500976388888887</v>
-      </c>
-      <c r="C100" s="3">
-        <v>33.500976388888887</v>
+        <v>101</v>
+      </c>
+      <c r="B100" s="2">
+        <v>33.500637962962962</v>
+      </c>
+      <c r="C100" s="2">
+        <v>36557.500637962963</v>
       </c>
       <c r="D100">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G100" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H100" t="s">
         <v>14</v>
@@ -3994,30 +4018,30 @@
         <v>15</v>
       </c>
       <c r="J100" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="3">
-        <v>33.500780902777777</v>
-      </c>
-      <c r="C101" s="3">
-        <v>33.500780902777777</v>
+        <v>101</v>
+      </c>
+      <c r="B101" s="2">
+        <v>33.500689004629628</v>
+      </c>
+      <c r="C101" s="2">
+        <v>36557.500689004628</v>
       </c>
       <c r="D101">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>539</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G101" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
@@ -4026,30 +4050,30 @@
         <v>15</v>
       </c>
       <c r="J101" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B102" s="3">
-        <v>33.50078923611111</v>
+        <v>33.501827662037037</v>
       </c>
       <c r="C102" s="3">
-        <v>33.50078923611111</v>
+        <v>33.501827662037037</v>
       </c>
       <c r="D102">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E102">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G102" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
@@ -4058,62 +4082,62 @@
         <v>15</v>
       </c>
       <c r="J102" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>33.502015509259259</v>
+      </c>
+      <c r="C103" s="3">
+        <v>33.502015509259259</v>
+      </c>
+      <c r="D103">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>306</v>
+      </c>
+      <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" t="s">
+        <v>97</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" t="s">
         <v>98</v>
-      </c>
-      <c r="B103" s="3">
-        <v>33.500790277777774</v>
-      </c>
-      <c r="C103" s="3">
-        <v>33.500790277777774</v>
-      </c>
-      <c r="D103">
-        <v>12</v>
-      </c>
-      <c r="E103">
-        <v>512</v>
-      </c>
-      <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
-      <c r="H103" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" t="s">
-        <v>15</v>
-      </c>
-      <c r="J103" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>98</v>
-      </c>
-      <c r="B104" s="3">
-        <v>33.500846180555556</v>
-      </c>
-      <c r="C104" s="3">
-        <v>33.500846180555556</v>
+        <v>103</v>
+      </c>
+      <c r="B104" s="2">
+        <v>33.500381134259257</v>
+      </c>
+      <c r="C104" s="2">
+        <v>36557.500381134261</v>
       </c>
       <c r="D104">
         <v>12</v>
       </c>
       <c r="E104">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
@@ -4122,30 +4146,30 @@
         <v>15</v>
       </c>
       <c r="J104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="3">
-        <v>33.501035185185188</v>
-      </c>
-      <c r="C105" s="3">
-        <v>33.501035185185188</v>
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>33.500527083333331</v>
+      </c>
+      <c r="C105" s="2">
+        <v>36557.500527083335</v>
       </c>
       <c r="D105">
         <v>10</v>
       </c>
       <c r="E105">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
@@ -4154,30 +4178,30 @@
         <v>15</v>
       </c>
       <c r="J105" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" s="3">
-        <v>33.501035648148147</v>
-      </c>
-      <c r="C106" s="3">
-        <v>33.501035648148147</v>
+        <v>103</v>
+      </c>
+      <c r="B106" s="2">
+        <v>33.500542708333334</v>
+      </c>
+      <c r="C106" s="2">
+        <v>36557.500542708331</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H106" t="s">
         <v>14</v>
@@ -4186,30 +4210,30 @@
         <v>15</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" s="3">
-        <v>33.501095601851851</v>
-      </c>
-      <c r="C107" s="3">
-        <v>33.501095601851851</v>
+        <v>103</v>
+      </c>
+      <c r="B107" s="2">
+        <v>33.500561111111111</v>
+      </c>
+      <c r="C107" s="2">
+        <v>36557.500561111112</v>
       </c>
       <c r="D107">
         <v>9</v>
       </c>
       <c r="E107">
-        <v>268</v>
+        <v>87</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
         <v>14</v>
@@ -4218,30 +4242,30 @@
         <v>15</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B108" s="3">
-        <v>33.501120486111112</v>
+        <v>33.500696990740742</v>
       </c>
       <c r="C108" s="3">
-        <v>33.501120486111112</v>
+        <v>33.500696990740742</v>
       </c>
       <c r="D108">
         <v>9</v>
       </c>
       <c r="E108">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H108" t="s">
         <v>14</v>
@@ -4250,30 +4274,30 @@
         <v>15</v>
       </c>
       <c r="J108" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B109" s="3">
-        <v>33.501122685185187</v>
+        <v>33.50074016203704</v>
       </c>
       <c r="C109" s="3">
-        <v>33.501122685185187</v>
+        <v>33.50074016203704</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E109">
-        <v>224</v>
+        <v>376</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G109" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
@@ -4282,30 +4306,30 @@
         <v>15</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B110" s="3">
-        <v>33.501208449074078</v>
+        <v>33.500976388888887</v>
       </c>
       <c r="C110" s="3">
-        <v>33.501208449074078</v>
+        <v>33.500976388888887</v>
       </c>
       <c r="D110">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E110">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F110" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G110" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H110" t="s">
         <v>14</v>
@@ -4314,30 +4338,30 @@
         <v>15</v>
       </c>
       <c r="J110" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B111" s="3">
-        <v>33.501232754629626</v>
+        <v>33.501777662037036</v>
       </c>
       <c r="C111" s="3">
-        <v>33.501232754629626</v>
+        <v>33.501777662037036</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E111">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s">
         <v>14</v>
@@ -4346,30 +4370,30 @@
         <v>15</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B112" s="3">
-        <v>33.501522453703707</v>
+        <v>33.500780902777777</v>
       </c>
       <c r="C112" s="3">
-        <v>33.501522453703707</v>
+        <v>33.500780902777777</v>
       </c>
       <c r="D112">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E112">
-        <v>643</v>
+        <v>539</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H112" t="s">
         <v>14</v>
@@ -4378,30 +4402,30 @@
         <v>15</v>
       </c>
       <c r="J112" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B113" s="3">
-        <v>33.501524884259261</v>
+        <v>33.50078923611111</v>
       </c>
       <c r="C113" s="3">
-        <v>33.501524884259261</v>
+        <v>33.50078923611111</v>
       </c>
       <c r="D113">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E113">
-        <v>639</v>
+        <v>515</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
@@ -4410,30 +4434,30 @@
         <v>15</v>
       </c>
       <c r="J113" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B114" s="3">
-        <v>33.501657754629626</v>
+        <v>33.500790277777774</v>
       </c>
       <c r="C114" s="3">
-        <v>33.501657754629626</v>
+        <v>33.500790277777774</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114">
-        <v>431</v>
+        <v>512</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
@@ -4442,30 +4466,30 @@
         <v>15</v>
       </c>
       <c r="J114" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B115" s="3">
-        <v>33.503662962962963</v>
+        <v>33.500846180555556</v>
       </c>
       <c r="C115" s="3">
-        <v>33.503662962962963</v>
+        <v>33.500846180555556</v>
       </c>
       <c r="D115">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G115" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
@@ -4474,30 +4498,30 @@
         <v>15</v>
       </c>
       <c r="J115" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="3">
+        <v>33.501035185185188</v>
+      </c>
+      <c r="C116" s="3">
+        <v>33.501035185185188</v>
+      </c>
+      <c r="D116">
         <v>10</v>
       </c>
-      <c r="B116" s="2">
-        <v>33.500326388888887</v>
-      </c>
-      <c r="C116" s="2">
-        <v>36557.500326388887</v>
-      </c>
-      <c r="D116">
-        <v>13</v>
-      </c>
       <c r="E116">
-        <v>693</v>
+        <v>244</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
@@ -4506,30 +4530,30 @@
         <v>15</v>
       </c>
       <c r="J116" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" s="3">
+        <v>33.501035648148147</v>
+      </c>
+      <c r="C117" s="3">
+        <v>33.501035648148147</v>
+      </c>
+      <c r="D117">
         <v>10</v>
       </c>
-      <c r="B117" s="2">
-        <v>33.500334259259262</v>
-      </c>
-      <c r="C117" s="2">
-        <v>36557.500334259261</v>
-      </c>
-      <c r="D117">
-        <v>13</v>
-      </c>
       <c r="E117">
-        <v>642</v>
+        <v>243</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G117" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
@@ -4538,30 +4562,30 @@
         <v>15</v>
       </c>
       <c r="J117" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="2">
-        <v>33.500337152777774</v>
-      </c>
-      <c r="C118" s="2">
-        <v>36557.500337152778</v>
+        <v>106</v>
+      </c>
+      <c r="B118" s="3">
+        <v>33.501095601851851</v>
+      </c>
+      <c r="C118" s="3">
+        <v>33.501095601851851</v>
       </c>
       <c r="D118">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>624</v>
+        <v>268</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
         <v>14</v>
@@ -4570,30 +4594,30 @@
         <v>15</v>
       </c>
       <c r="J118" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" s="2">
-        <v>33.500346064814813</v>
-      </c>
-      <c r="C119" s="2">
-        <v>36557.500346064815</v>
+        <v>106</v>
+      </c>
+      <c r="B119" s="3">
+        <v>33.501120486111112</v>
+      </c>
+      <c r="C119" s="3">
+        <v>33.501120486111112</v>
       </c>
       <c r="D119">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>670</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="H119" t="s">
         <v>14</v>
@@ -4602,30 +4626,30 @@
         <v>15</v>
       </c>
       <c r="J119" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="2">
-        <v>33.500346874999998</v>
-      </c>
-      <c r="C120" s="2">
-        <v>36557.500346875</v>
+        <v>106</v>
+      </c>
+      <c r="B120" s="3">
+        <v>33.501122685185187</v>
+      </c>
+      <c r="C120" s="3">
+        <v>33.501122685185187</v>
       </c>
       <c r="D120">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>666</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="H120" t="s">
         <v>14</v>
@@ -4634,30 +4658,30 @@
         <v>15</v>
       </c>
       <c r="J120" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="2">
-        <v>33.500359375000002</v>
-      </c>
-      <c r="C121" s="2">
-        <v>36557.500359375001</v>
+        <v>106</v>
+      </c>
+      <c r="B121" s="3">
+        <v>33.501208449074078</v>
+      </c>
+      <c r="C121" s="3">
+        <v>33.501208449074078</v>
       </c>
       <c r="D121">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E121">
-        <v>597</v>
+        <v>106</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G121" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
@@ -4666,30 +4690,30 @@
         <v>15</v>
       </c>
       <c r="J121" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" s="2">
-        <v>33.500366203703706</v>
-      </c>
-      <c r="C122" s="2">
-        <v>36557.500366203705</v>
+        <v>106</v>
+      </c>
+      <c r="B122" s="3">
+        <v>33.501232754629626</v>
+      </c>
+      <c r="C122" s="3">
+        <v>33.501232754629626</v>
       </c>
       <c r="D122">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E122">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G122" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
@@ -4698,27 +4722,27 @@
         <v>15</v>
       </c>
       <c r="J122" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B123" s="3">
-        <v>33.500716550925922</v>
+        <v>33.501522453703707</v>
       </c>
       <c r="C123" s="3">
-        <v>33.500716550925922</v>
+        <v>33.501522453703707</v>
       </c>
       <c r="D123">
         <v>13</v>
       </c>
       <c r="E123">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G123" t="s">
         <v>13</v>
@@ -4730,30 +4754,30 @@
         <v>15</v>
       </c>
       <c r="J123" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B124" s="3">
-        <v>33.500730787037035</v>
+        <v>33.501524884259261</v>
       </c>
       <c r="C124" s="3">
-        <v>33.500730787037035</v>
+        <v>33.501524884259261</v>
       </c>
       <c r="D124">
         <v>13</v>
       </c>
       <c r="E124">
-        <v>593</v>
+        <v>639</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
       </c>
       <c r="G124" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
@@ -4762,30 +4786,30 @@
         <v>15</v>
       </c>
       <c r="J124" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B125" s="3">
-        <v>33.500734143518521</v>
+        <v>33.501568981481483</v>
       </c>
       <c r="C125" s="3">
-        <v>33.500734143518521</v>
+        <v>33.501568981481483</v>
       </c>
       <c r="D125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E125">
-        <v>582</v>
+        <v>469</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
       </c>
       <c r="G125" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="H125" t="s">
         <v>14</v>
@@ -4794,30 +4818,30 @@
         <v>15</v>
       </c>
       <c r="J125" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B126" s="3">
-        <v>33.500765162037034</v>
+        <v>33.501657754629626</v>
       </c>
       <c r="C126" s="3">
-        <v>33.500765162037034</v>
+        <v>33.501657754629626</v>
       </c>
       <c r="D126">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E126">
-        <v>616</v>
+        <v>431</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G126" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="H126" t="s">
         <v>14</v>
@@ -4826,30 +4850,30 @@
         <v>15</v>
       </c>
       <c r="J126" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B127" s="3">
-        <v>33.500768981481478</v>
+        <v>33.50336736111111</v>
       </c>
       <c r="C127" s="3">
-        <v>33.500768981481478</v>
+        <v>33.50336736111111</v>
       </c>
       <c r="D127">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E127">
-        <v>605</v>
+        <v>468</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G127" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="H127" t="s">
         <v>14</v>
@@ -4858,30 +4882,30 @@
         <v>15</v>
       </c>
       <c r="J127" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B128" s="3">
-        <v>33.500792824074075</v>
+        <v>33.503662962962963</v>
       </c>
       <c r="C128" s="3">
-        <v>33.500792824074075</v>
+        <v>33.503662962962963</v>
       </c>
       <c r="D128">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E128">
-        <v>538</v>
+        <v>371</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G128" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H128" t="s">
         <v>14</v>
@@ -4890,30 +4914,30 @@
         <v>15</v>
       </c>
       <c r="J128" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>69</v>
-      </c>
-      <c r="B129" s="3">
-        <v>33.501570138888887</v>
-      </c>
-      <c r="C129" s="3">
-        <v>33.501570138888887</v>
+        <v>10</v>
+      </c>
+      <c r="B129" s="2">
+        <v>33.500326388888887</v>
+      </c>
+      <c r="C129" s="2">
+        <v>36557.500326388887</v>
       </c>
       <c r="D129">
         <v>13</v>
       </c>
       <c r="E129">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
         <v>14</v>
@@ -4922,30 +4946,30 @@
         <v>15</v>
       </c>
       <c r="J129" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130" s="3">
-        <v>33.501591898148149</v>
-      </c>
-      <c r="C130" s="3">
-        <v>33.501591898148149</v>
+        <v>10</v>
+      </c>
+      <c r="B130" s="2">
+        <v>33.500334259259262</v>
+      </c>
+      <c r="C130" s="2">
+        <v>36557.500334259261</v>
       </c>
       <c r="D130">
         <v>13</v>
       </c>
       <c r="E130">
-        <v>588</v>
+        <v>642</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H130" t="s">
         <v>14</v>
@@ -4954,30 +4978,30 @@
         <v>15</v>
       </c>
       <c r="J130" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131" s="3">
-        <v>33.501609027777775</v>
-      </c>
-      <c r="C131" s="3">
-        <v>33.501609027777775</v>
+        <v>10</v>
+      </c>
+      <c r="B131" s="2">
+        <v>33.500337152777774</v>
+      </c>
+      <c r="C131" s="2">
+        <v>36557.500337152778</v>
       </c>
       <c r="D131">
         <v>13</v>
       </c>
       <c r="E131">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="F131" t="s">
         <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H131" t="s">
         <v>14</v>
@@ -4986,30 +5010,30 @@
         <v>15</v>
       </c>
       <c r="J131" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>69</v>
-      </c>
-      <c r="B132" s="3">
-        <v>33.501615162037034</v>
-      </c>
-      <c r="C132" s="3">
-        <v>33.501615162037034</v>
+        <v>10</v>
+      </c>
+      <c r="B132" s="2">
+        <v>33.500346064814813</v>
+      </c>
+      <c r="C132" s="2">
+        <v>36557.500346064815</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E132">
-        <v>551</v>
+        <v>670</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H132" t="s">
         <v>14</v>
@@ -5018,30 +5042,30 @@
         <v>15</v>
       </c>
       <c r="J132" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>69</v>
-      </c>
-      <c r="B133" s="3">
-        <v>33.501635185185187</v>
-      </c>
-      <c r="C133" s="3">
-        <v>33.501635185185187</v>
+        <v>10</v>
+      </c>
+      <c r="B133" s="2">
+        <v>33.500346874999998</v>
+      </c>
+      <c r="C133" s="2">
+        <v>36557.500346875</v>
       </c>
       <c r="D133">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E133">
-        <v>519</v>
+        <v>666</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H133" t="s">
         <v>14</v>
@@ -5050,30 +5074,30 @@
         <v>15</v>
       </c>
       <c r="J133" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>69</v>
-      </c>
-      <c r="B134" s="3">
-        <v>33.501722685185186</v>
-      </c>
-      <c r="C134" s="3">
-        <v>33.501722685185186</v>
+        <v>10</v>
+      </c>
+      <c r="B134" s="2">
+        <v>33.500359375000002</v>
+      </c>
+      <c r="C134" s="2">
+        <v>36557.500359375001</v>
       </c>
       <c r="D134">
         <v>12</v>
       </c>
       <c r="E134">
-        <v>510</v>
+        <v>597</v>
       </c>
       <c r="F134" t="s">
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H134" t="s">
         <v>14</v>
@@ -5082,30 +5106,30 @@
         <v>15</v>
       </c>
       <c r="J134" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>69</v>
-      </c>
-      <c r="B135" s="3">
-        <v>33.501744097222222</v>
-      </c>
-      <c r="C135" s="3">
-        <v>33.501744097222222</v>
+        <v>10</v>
+      </c>
+      <c r="B135" s="2">
+        <v>33.500366203703706</v>
+      </c>
+      <c r="C135" s="2">
+        <v>36557.500366203705</v>
       </c>
       <c r="D135">
         <v>12</v>
       </c>
       <c r="E135">
-        <v>482</v>
+        <v>560</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H135" t="s">
         <v>14</v>
@@ -5114,30 +5138,30 @@
         <v>15</v>
       </c>
       <c r="J135" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B136" s="3">
-        <v>33.501818055555553</v>
+        <v>33.500716550925922</v>
       </c>
       <c r="C136" s="3">
-        <v>33.501818055555553</v>
+        <v>33.500716550925922</v>
       </c>
       <c r="D136">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E136">
-        <v>389</v>
+        <v>640</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="H136" t="s">
         <v>14</v>
@@ -5146,30 +5170,30 @@
         <v>15</v>
       </c>
       <c r="J136" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B137" s="3">
-        <v>33.501834606481481</v>
+        <v>33.500730787037035</v>
       </c>
       <c r="C137" s="3">
-        <v>33.501834606481481</v>
+        <v>33.500730787037035</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E137">
-        <v>369</v>
+        <v>593</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G137" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H137" t="s">
         <v>14</v>
@@ -5178,30 +5202,30 @@
         <v>15</v>
       </c>
       <c r="J137" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="B138" s="3">
-        <v>33.503584490740742</v>
+        <v>33.500734143518521</v>
       </c>
       <c r="C138" s="3">
-        <v>33.503584490740742</v>
+        <v>33.500734143518521</v>
       </c>
       <c r="D138">
         <v>13</v>
       </c>
       <c r="E138">
-        <v>436</v>
+        <v>582</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="H138" t="s">
         <v>14</v>
@@ -5210,30 +5234,30 @@
         <v>15</v>
       </c>
       <c r="J138" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="B139" s="3">
-        <v>33.503808101851853</v>
+        <v>33.500765162037034</v>
       </c>
       <c r="C139" s="3">
-        <v>33.503808101851853</v>
+        <v>33.500765162037034</v>
       </c>
       <c r="D139">
         <v>12</v>
       </c>
       <c r="E139">
-        <v>412</v>
+        <v>616</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H139" t="s">
         <v>14</v>
@@ -5242,30 +5266,30 @@
         <v>15</v>
       </c>
       <c r="J139" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>81</v>
-      </c>
-      <c r="B140" s="2">
-        <v>33.50040104166667</v>
-      </c>
-      <c r="C140" s="2">
-        <v>36557.500401041667</v>
+        <v>60</v>
+      </c>
+      <c r="B140" s="3">
+        <v>33.500768981481478</v>
+      </c>
+      <c r="C140" s="3">
+        <v>33.500768981481478</v>
       </c>
       <c r="D140">
         <v>12</v>
       </c>
       <c r="E140">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="F140" t="s">
         <v>12</v>
       </c>
       <c r="G140" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H140" t="s">
         <v>14</v>
@@ -5274,30 +5298,30 @@
         <v>15</v>
       </c>
       <c r="J140" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>81</v>
-      </c>
-      <c r="B141" t="s">
-        <v>126</v>
-      </c>
-      <c r="C141" s="2">
-        <v>36557.500402546299</v>
+        <v>60</v>
+      </c>
+      <c r="B141" s="3">
+        <v>33.500792824074075</v>
+      </c>
+      <c r="C141" s="3">
+        <v>33.500792824074075</v>
       </c>
       <c r="D141">
         <v>12</v>
       </c>
       <c r="E141">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G141" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H141" t="s">
         <v>14</v>
@@ -5306,30 +5330,30 @@
         <v>15</v>
       </c>
       <c r="J141" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>81</v>
-      </c>
-      <c r="B142" s="2">
-        <v>33.500407638888888</v>
-      </c>
-      <c r="C142" s="2">
-        <v>36557.500407638887</v>
+        <v>72</v>
+      </c>
+      <c r="B142" s="3">
+        <v>33.501570138888887</v>
+      </c>
+      <c r="C142" s="3">
+        <v>33.501570138888887</v>
       </c>
       <c r="D142">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E142">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G142" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H142" t="s">
         <v>14</v>
@@ -5338,30 +5362,30 @@
         <v>15</v>
       </c>
       <c r="J142" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>81</v>
-      </c>
-      <c r="B143" s="2">
-        <v>33.500430439814814</v>
-      </c>
-      <c r="C143" s="2">
-        <v>36557.500430439817</v>
+        <v>72</v>
+      </c>
+      <c r="B143" s="3">
+        <v>33.501591898148149</v>
+      </c>
+      <c r="C143" s="3">
+        <v>33.501591898148149</v>
       </c>
       <c r="D143">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E143">
-        <v>489</v>
+        <v>588</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
       </c>
       <c r="G143" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
         <v>14</v>
@@ -5375,25 +5399,25 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>81</v>
-      </c>
-      <c r="B144" s="2">
-        <v>33.500444560185187</v>
-      </c>
-      <c r="C144" s="2">
-        <v>36557.500444560188</v>
+        <v>72</v>
+      </c>
+      <c r="B144" s="3">
+        <v>33.501609027777775</v>
+      </c>
+      <c r="C144" s="3">
+        <v>33.501609027777775</v>
       </c>
       <c r="D144">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>421</v>
+        <v>560</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G144" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H144" t="s">
         <v>14</v>
@@ -5402,30 +5426,30 @@
         <v>15</v>
       </c>
       <c r="J144" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B145" s="3">
-        <v>33.500814351851851</v>
+        <v>33.501615162037034</v>
       </c>
       <c r="C145" s="3">
-        <v>33.500814351851851</v>
+        <v>33.501615162037034</v>
       </c>
       <c r="D145">
         <v>13</v>
       </c>
       <c r="E145">
-        <v>666</v>
+        <v>551</v>
       </c>
       <c r="F145" t="s">
         <v>17</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
@@ -5434,30 +5458,30 @@
         <v>15</v>
       </c>
       <c r="J145" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B146" s="3">
-        <v>33.50084988425926</v>
+        <v>33.501635185185187</v>
       </c>
       <c r="C146" s="3">
-        <v>33.50084988425926</v>
+        <v>33.501635185185187</v>
       </c>
       <c r="D146">
         <v>13</v>
       </c>
       <c r="E146">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G146" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H146" t="s">
         <v>14</v>
@@ -5466,30 +5490,30 @@
         <v>15</v>
       </c>
       <c r="J146" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B147" s="3">
-        <v>33.500860185185182</v>
+        <v>33.501722685185186</v>
       </c>
       <c r="C147" s="3">
-        <v>33.500860185185182</v>
+        <v>33.501722685185186</v>
       </c>
       <c r="D147">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E147">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G147" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H147" t="s">
         <v>14</v>
@@ -5498,30 +5522,30 @@
         <v>15</v>
       </c>
       <c r="J147" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B148" s="3">
-        <v>33.500871412037036</v>
+        <v>33.501744097222222</v>
       </c>
       <c r="C148" s="3">
-        <v>33.500871412037036</v>
+        <v>33.501744097222222</v>
       </c>
       <c r="D148">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E148">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G148" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="H148" t="s">
         <v>14</v>
@@ -5530,30 +5554,30 @@
         <v>15</v>
       </c>
       <c r="J148" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B149" s="3">
-        <v>33.500881597222225</v>
+        <v>33.501818055555553</v>
       </c>
       <c r="C149" s="3">
-        <v>33.500881597222225</v>
+        <v>33.501818055555553</v>
       </c>
       <c r="D149">
         <v>12</v>
       </c>
       <c r="E149">
-        <v>597</v>
+        <v>389</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G149" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H149" t="s">
         <v>14</v>
@@ -5562,30 +5586,30 @@
         <v>15</v>
       </c>
       <c r="J149" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B150" s="3">
-        <v>33.500885300925923</v>
+        <v>33.501834606481481</v>
       </c>
       <c r="C150" s="3">
-        <v>33.500885300925923</v>
+        <v>33.501834606481481</v>
       </c>
       <c r="D150">
         <v>12</v>
       </c>
       <c r="E150">
-        <v>588</v>
+        <v>369</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G150" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H150" t="s">
         <v>14</v>
@@ -5594,30 +5618,30 @@
         <v>15</v>
       </c>
       <c r="J150" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B151" s="3">
-        <v>33.500911458333334</v>
+        <v>33.503584490740742</v>
       </c>
       <c r="C151" s="3">
-        <v>33.500911458333334</v>
+        <v>33.503584490740742</v>
       </c>
       <c r="D151">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E151">
-        <v>525</v>
+        <v>436</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G151" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H151" t="s">
         <v>14</v>
@@ -5626,30 +5650,30 @@
         <v>15</v>
       </c>
       <c r="J151" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B152" s="3">
-        <v>33.500924652777776</v>
+        <v>33.503808101851853</v>
       </c>
       <c r="C152" s="3">
-        <v>33.500924652777776</v>
+        <v>33.503808101851853</v>
       </c>
       <c r="D152">
         <v>12</v>
       </c>
       <c r="E152">
-        <v>495</v>
+        <v>412</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G152" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="H152" t="s">
         <v>14</v>
@@ -5658,30 +5682,30 @@
         <v>15</v>
       </c>
       <c r="J152" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>88</v>
-      </c>
-      <c r="B153" s="3">
-        <v>33.501753935185185</v>
-      </c>
-      <c r="C153" s="3">
-        <v>33.501753935185185</v>
+        <v>87</v>
+      </c>
+      <c r="B153" s="2">
+        <v>33.50040104166667</v>
+      </c>
+      <c r="C153" s="2">
+        <v>36557.500401041667</v>
       </c>
       <c r="D153">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E153">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H153" t="s">
         <v>14</v>
@@ -5690,30 +5714,30 @@
         <v>15</v>
       </c>
       <c r="J153" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>88</v>
-      </c>
-      <c r="B154" s="3">
-        <v>33.501821874999997</v>
-      </c>
-      <c r="C154" s="3">
-        <v>33.501821874999997</v>
+        <v>87</v>
+      </c>
+      <c r="B154" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" s="2">
+        <v>36557.500402546299</v>
       </c>
       <c r="D154">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E154">
-        <v>554</v>
+        <v>633</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H154" t="s">
         <v>14</v>
@@ -5722,30 +5746,30 @@
         <v>15</v>
       </c>
       <c r="J154" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>88</v>
-      </c>
-      <c r="B155" s="3">
-        <v>33.501857638888886</v>
-      </c>
-      <c r="C155" s="3">
-        <v>33.501857638888886</v>
+        <v>87</v>
+      </c>
+      <c r="B155" s="2">
+        <v>33.500407638888888</v>
+      </c>
+      <c r="C155" s="2">
+        <v>36557.500407638887</v>
       </c>
       <c r="D155">
         <v>12</v>
       </c>
       <c r="E155">
-        <v>670</v>
+        <v>606</v>
       </c>
       <c r="F155" t="s">
         <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H155" t="s">
         <v>14</v>
@@ -5754,30 +5778,30 @@
         <v>15</v>
       </c>
       <c r="J155" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>88</v>
-      </c>
-      <c r="B156" s="3">
-        <v>33.501861921296296</v>
-      </c>
-      <c r="C156" s="3">
-        <v>33.501861921296296</v>
+        <v>87</v>
+      </c>
+      <c r="B156" s="2">
+        <v>33.500430439814814</v>
+      </c>
+      <c r="C156" s="2">
+        <v>36557.500430439817</v>
       </c>
       <c r="D156">
         <v>12</v>
       </c>
       <c r="E156">
-        <v>665</v>
+        <v>489</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H156" t="s">
         <v>14</v>
@@ -5786,30 +5810,30 @@
         <v>15</v>
       </c>
       <c r="J156" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>88</v>
-      </c>
-      <c r="B157" s="3">
-        <v>33.501976041666666</v>
-      </c>
-      <c r="C157" s="3">
-        <v>33.501976041666666</v>
+        <v>87</v>
+      </c>
+      <c r="B157" s="2">
+        <v>33.500444560185187</v>
+      </c>
+      <c r="C157" s="2">
+        <v>36557.500444560188</v>
       </c>
       <c r="D157">
         <v>12</v>
       </c>
       <c r="E157">
-        <v>534</v>
+        <v>421</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G157" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H157" t="s">
         <v>14</v>
@@ -5818,30 +5842,30 @@
         <v>15</v>
       </c>
       <c r="J157" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>94</v>
-      </c>
-      <c r="B158" s="2">
-        <v>33.500490624999998</v>
-      </c>
-      <c r="C158" s="2">
-        <v>36557.500490625003</v>
+        <v>93</v>
+      </c>
+      <c r="B158" s="3">
+        <v>33.500814351851851</v>
+      </c>
+      <c r="C158" s="3">
+        <v>33.500814351851851</v>
       </c>
       <c r="D158">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E158">
-        <v>421</v>
+        <v>666</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G158" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
         <v>14</v>
@@ -5850,30 +5874,30 @@
         <v>15</v>
       </c>
       <c r="J158" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B159" s="3">
-        <v>33.500982407407406</v>
+        <v>33.50084988425926</v>
       </c>
       <c r="C159" s="3">
-        <v>33.500982407407406</v>
+        <v>33.50084988425926</v>
       </c>
       <c r="D159">
         <v>13</v>
       </c>
       <c r="E159">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="F159" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G159" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H159" t="s">
         <v>14</v>
@@ -5882,30 +5906,30 @@
         <v>15</v>
       </c>
       <c r="J159" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B160" s="3">
-        <v>33.502152199074075</v>
+        <v>33.500860185185182</v>
       </c>
       <c r="C160" s="3">
-        <v>33.502152199074075</v>
+        <v>33.500860185185182</v>
       </c>
       <c r="D160">
         <v>13</v>
       </c>
       <c r="E160">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G160" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H160" t="s">
         <v>14</v>
@@ -5914,30 +5938,30 @@
         <v>15</v>
       </c>
       <c r="J160" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>96</v>
-      </c>
-      <c r="B161" s="2">
-        <v>33.500412152777777</v>
-      </c>
-      <c r="C161" s="2">
-        <v>36557.500412152775</v>
+        <v>93</v>
+      </c>
+      <c r="B161" s="3">
+        <v>33.500871412037036</v>
+      </c>
+      <c r="C161" s="3">
+        <v>33.500871412037036</v>
       </c>
       <c r="D161">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E161">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="F161" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G161" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H161" t="s">
         <v>14</v>
@@ -5946,30 +5970,30 @@
         <v>15</v>
       </c>
       <c r="J161" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B162" s="3">
-        <v>33.500822453703705</v>
+        <v>33.500881597222225</v>
       </c>
       <c r="C162" s="3">
-        <v>33.500822453703705</v>
+        <v>33.500881597222225</v>
       </c>
       <c r="D162">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E162">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H162" t="s">
         <v>14</v>
@@ -5978,30 +6002,30 @@
         <v>15</v>
       </c>
       <c r="J162" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B163" s="3">
-        <v>33.500868055555557</v>
+        <v>33.500885300925923</v>
       </c>
       <c r="C163" s="3">
-        <v>33.500868055555557</v>
+        <v>33.500885300925923</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E163">
-        <v>414</v>
+        <v>588</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H163" t="s">
         <v>14</v>
@@ -6010,30 +6034,30 @@
         <v>15</v>
       </c>
       <c r="J163" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B164" s="3">
-        <v>33.500978472222222</v>
+        <v>33.500911458333334</v>
       </c>
       <c r="C164" s="3">
-        <v>33.500978472222222</v>
+        <v>33.500911458333334</v>
       </c>
       <c r="D164">
         <v>12</v>
       </c>
       <c r="E164">
-        <v>335</v>
+        <v>525</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H164" t="s">
         <v>14</v>
@@ -6042,30 +6066,30 @@
         <v>15</v>
       </c>
       <c r="J164" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B165" s="3">
-        <v>33.501791782407409</v>
+        <v>33.500924652777776</v>
       </c>
       <c r="C165" s="3">
-        <v>33.501791782407409</v>
+        <v>33.500924652777776</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E165">
-        <v>602</v>
+        <v>495</v>
       </c>
       <c r="F165" t="s">
         <v>17</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="H165" t="s">
         <v>14</v>
@@ -6074,30 +6098,30 @@
         <v>15</v>
       </c>
       <c r="J165" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B166" s="3">
-        <v>33.501852777777778</v>
+        <v>33.501753935185185</v>
       </c>
       <c r="C166" s="3">
-        <v>33.501852777777778</v>
+        <v>33.501753935185185</v>
       </c>
       <c r="D166">
         <v>13</v>
       </c>
       <c r="E166">
-        <v>518</v>
+        <v>645</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G166" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="H166" t="s">
         <v>14</v>
@@ -6106,30 +6130,30 @@
         <v>15</v>
       </c>
       <c r="J166" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B167" s="3">
-        <v>33.502034027777775</v>
+        <v>33.501821874999997</v>
       </c>
       <c r="C167" s="3">
-        <v>33.502034027777775</v>
+        <v>33.501821874999997</v>
       </c>
       <c r="D167">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E167">
-        <v>434</v>
+        <v>554</v>
       </c>
       <c r="F167" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G167" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H167" t="s">
         <v>14</v>
@@ -6138,39 +6162,455 @@
         <v>15</v>
       </c>
       <c r="J167" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B168" s="3">
+        <v>33.501857638888886</v>
+      </c>
+      <c r="C168" s="3">
+        <v>33.501857638888886</v>
+      </c>
+      <c r="D168">
+        <v>12</v>
+      </c>
+      <c r="E168">
+        <v>670</v>
+      </c>
+      <c r="F168" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>114</v>
+      </c>
+      <c r="H168" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>15</v>
+      </c>
+      <c r="J168" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>94</v>
+      </c>
+      <c r="B169" s="3">
+        <v>33.501861921296296</v>
+      </c>
+      <c r="C169" s="3">
+        <v>33.501861921296296</v>
+      </c>
+      <c r="D169">
+        <v>12</v>
+      </c>
+      <c r="E169">
+        <v>665</v>
+      </c>
+      <c r="F169" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>114</v>
+      </c>
+      <c r="H169" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>94</v>
+      </c>
+      <c r="B170" s="3">
+        <v>33.501976041666666</v>
+      </c>
+      <c r="C170" s="3">
+        <v>33.501976041666666</v>
+      </c>
+      <c r="D170">
+        <v>12</v>
+      </c>
+      <c r="E170">
+        <v>534</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>118</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>15</v>
+      </c>
+      <c r="J170" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>101</v>
+      </c>
+      <c r="B171" s="2">
+        <v>33.500490624999998</v>
+      </c>
+      <c r="C171" s="2">
+        <v>36557.500490625003</v>
+      </c>
+      <c r="D171">
+        <v>12</v>
+      </c>
+      <c r="E171">
+        <v>421</v>
+      </c>
+      <c r="F171" t="s">
+        <v>25</v>
+      </c>
+      <c r="G171" t="s">
+        <v>130</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>136</v>
+      </c>
+      <c r="B172" s="3">
+        <v>33.500982407407406</v>
+      </c>
+      <c r="C172" s="3">
+        <v>33.500982407407406</v>
+      </c>
+      <c r="D172">
+        <v>13</v>
+      </c>
+      <c r="E172">
+        <v>516</v>
+      </c>
+      <c r="F172" t="s">
+        <v>25</v>
+      </c>
+      <c r="G172" t="s">
+        <v>125</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>102</v>
+      </c>
+      <c r="B173" s="3">
+        <v>33.502152199074075</v>
+      </c>
+      <c r="C173" s="3">
+        <v>33.502152199074075</v>
+      </c>
+      <c r="D173">
+        <v>13</v>
+      </c>
+      <c r="E173">
+        <v>499</v>
+      </c>
+      <c r="F173" t="s">
+        <v>25</v>
+      </c>
+      <c r="G173" t="s">
+        <v>125</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>103</v>
+      </c>
+      <c r="B174" s="2">
+        <v>33.500412152777777</v>
+      </c>
+      <c r="C174" s="2">
+        <v>36557.500412152775</v>
+      </c>
+      <c r="D174">
+        <v>12</v>
+      </c>
+      <c r="E174">
+        <v>454</v>
+      </c>
+      <c r="F174" t="s">
+        <v>25</v>
+      </c>
+      <c r="G174" t="s">
+        <v>130</v>
+      </c>
+      <c r="H174" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>15</v>
+      </c>
+      <c r="J174" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>104</v>
+      </c>
+      <c r="B175" s="3">
+        <v>33.500822453703705</v>
+      </c>
+      <c r="C175" s="3">
+        <v>33.500822453703705</v>
+      </c>
+      <c r="D175">
+        <v>13</v>
+      </c>
+      <c r="E175">
+        <v>539</v>
+      </c>
+      <c r="F175" t="s">
+        <v>25</v>
+      </c>
+      <c r="G175" t="s">
+        <v>125</v>
+      </c>
+      <c r="H175" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>15</v>
+      </c>
+      <c r="J175" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>104</v>
+      </c>
+      <c r="B176" s="3">
+        <v>33.500868055555557</v>
+      </c>
+      <c r="C176" s="3">
+        <v>33.500868055555557</v>
+      </c>
+      <c r="D176">
+        <v>13</v>
+      </c>
+      <c r="E176">
+        <v>414</v>
+      </c>
+      <c r="F176" t="s">
+        <v>25</v>
+      </c>
+      <c r="G176" t="s">
+        <v>110</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>104</v>
+      </c>
+      <c r="B177" s="3">
+        <v>33.500978472222222</v>
+      </c>
+      <c r="C177" s="3">
+        <v>33.500978472222222</v>
+      </c>
+      <c r="D177">
+        <v>12</v>
+      </c>
+      <c r="E177">
+        <v>335</v>
+      </c>
+      <c r="F177" t="s">
+        <v>25</v>
+      </c>
+      <c r="G177" t="s">
+        <v>130</v>
+      </c>
+      <c r="H177" t="s">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>107</v>
+      </c>
+      <c r="B178" s="3">
+        <v>33.501791782407409</v>
+      </c>
+      <c r="C178" s="3">
+        <v>33.501791782407409</v>
+      </c>
+      <c r="D178">
+        <v>13</v>
+      </c>
+      <c r="E178">
+        <v>602</v>
+      </c>
+      <c r="F178" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>15</v>
+      </c>
+      <c r="J178" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>107</v>
+      </c>
+      <c r="B179" s="3">
+        <v>33.501852777777778</v>
+      </c>
+      <c r="C179" s="3">
+        <v>33.501852777777778</v>
+      </c>
+      <c r="D179">
+        <v>13</v>
+      </c>
+      <c r="E179">
+        <v>518</v>
+      </c>
+      <c r="F179" t="s">
+        <v>25</v>
+      </c>
+      <c r="G179" t="s">
+        <v>121</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>107</v>
+      </c>
+      <c r="B180" s="3">
+        <v>33.502034027777775</v>
+      </c>
+      <c r="C180" s="3">
+        <v>33.502034027777775</v>
+      </c>
+      <c r="D180">
+        <v>12</v>
+      </c>
+      <c r="E180">
+        <v>434</v>
+      </c>
+      <c r="F180" t="s">
+        <v>25</v>
+      </c>
+      <c r="G180" t="s">
+        <v>118</v>
+      </c>
+      <c r="H180" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>15</v>
+      </c>
+      <c r="J180" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>108</v>
+      </c>
+      <c r="B181" s="3">
         <v>33.503960069444446</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C181" s="3">
         <v>33.503960069444446</v>
       </c>
-      <c r="D168">
+      <c r="D181">
         <v>13</v>
       </c>
-      <c r="E168">
+      <c r="E181">
         <v>516</v>
       </c>
-      <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s">
-        <v>130</v>
-      </c>
-      <c r="H168" t="s">
-        <v>14</v>
-      </c>
-      <c r="I168" t="s">
-        <v>15</v>
-      </c>
-      <c r="J168" t="s">
-        <v>129</v>
+      <c r="F181" t="s">
+        <v>25</v>
+      </c>
+      <c r="G181" t="s">
+        <v>138</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
